--- a/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
+++ b/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
@@ -5,15 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Desktop\OGAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\src\main\java\org\optaplanner\examples\audienciaTimeGrain\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D73E0-3F62-4EFC-B69F-9A2BB907B7FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B2CBE-10A7-4FB8-A6BA-E240AFEE11D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Configuration" sheetId="2" r:id="rId1"/>
+    <sheet name="Días" sheetId="7" r:id="rId2"/>
+    <sheet name="Salas" sheetId="8" r:id="rId3"/>
+    <sheet name="Jueces" sheetId="3" r:id="rId4"/>
+    <sheet name="Defensores" sheetId="4" r:id="rId5"/>
+    <sheet name="Fiscales" sheetId="5" r:id="rId6"/>
+    <sheet name="Tipos de Audiencia" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>id_juez</t>
   </si>
@@ -97,6 +104,132 @@
   </si>
   <si>
     <t>00:15</t>
+  </si>
+  <si>
+    <t>Mon 2018-10-15 17:45</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Room conflict</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Don't go in overtime</t>
+  </si>
+  <si>
+    <t>Start and end on same day</t>
+  </si>
+  <si>
+    <t>Do all meetings as soon as possible</t>
+  </si>
+  <si>
+    <t>One TimeGrain break between two consecutive meetings</t>
+  </si>
+  <si>
+    <t>Do not conflict Juez</t>
+  </si>
+  <si>
+    <t>Do not use room in prohibited time</t>
+  </si>
+  <si>
+    <t>Do not conflict Fiscal</t>
+  </si>
+  <si>
+    <t>Do not conflict Defensor</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Pedro Capó</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Sobreseimiento</t>
+  </si>
+  <si>
+    <t>Habeas Corpus</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Mon 05-08-2019</t>
+  </si>
+  <si>
+    <t>Tue 06-08-2019</t>
+  </si>
+  <si>
+    <t>Wed 07-08-2019</t>
+  </si>
+  <si>
+    <t>Thu 08-08-2019</t>
+  </si>
+  <si>
+    <t>Fri 09-08-2019</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>R-1</t>
+  </si>
+  <si>
+    <t>R-2</t>
+  </si>
+  <si>
+    <t>R-3</t>
+  </si>
+  <si>
+    <t>R-4</t>
   </si>
 </sst>
 </file>
@@ -104,9 +237,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,###,##0"/>
+    <numFmt numFmtId="164" formatCode="#,###,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +258,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -149,32 +296,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +621,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B612DF-EC3C-4485-B98A-E680A63819FF}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25">
+        <v>100</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CBE1B0-F043-46D8-B472-0E8B65065025}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515B8858-A5C2-488E-952D-AE17F45FC2D6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581DFA6-EBF4-4D6A-9BA5-2E584437EA5E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E706C9E-FB93-43EC-9197-218EBFAFE0B9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E4565-BC2E-4D8D-B279-9D55F310B107}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EA1BF4-323C-449F-AD2D-BE3506849753}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
+++ b/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\src\main\java\org\optaplanner\examples\audienciaTimeGrain\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B2CBE-10A7-4FB8-A6BA-E240AFEE11D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD43A33-1C1E-4105-8D18-86BA0AA1664B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="6525" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Defensores" sheetId="4" r:id="rId5"/>
     <sheet name="Fiscales" sheetId="5" r:id="rId6"/>
     <sheet name="Tipos de Audiencia" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
+    <sheet name="Audiencias" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>id_juez</t>
   </si>
@@ -230,6 +231,18 @@
   </si>
   <si>
     <t>R-4</t>
+  </si>
+  <si>
+    <t>Juez</t>
+  </si>
+  <si>
+    <t>Defensor</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>Duración</t>
   </si>
 </sst>
 </file>
@@ -864,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515B8858-A5C2-488E-952D-AE17F45FC2D6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +933,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E706C9E-FB93-43EC-9197-218EBFAFE0B9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1088,6 +1101,166 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62BB77C-08CC-45C8-9B7E-37D5CCBA7E6C}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>105</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>105</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>

--- a/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
+++ b/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\src\main\java\org\optaplanner\examples\audienciaTimeGrain\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD43A33-1C1E-4105-8D18-86BA0AA1664B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFF9588-285D-4474-BD45-BAE0F490FDF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="6525" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B612DF-EC3C-4485-B98A-E680A63819FF}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,13 +814,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62BB77C-08CC-45C8-9B7E-37D5CCBA7E6C}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
+++ b/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\src\main\java\org\optaplanner\examples\audienciaTimeGrain\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFF9588-285D-4474-BD45-BAE0F490FDF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEEF32-4C90-44BF-8ED3-6F7B080557F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>id_juez</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Duración</t>
+  </si>
+  <si>
+    <t>Avoid Mid-break</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B612DF-EC3C-4485-B98A-E680A63819FF}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,42 +739,51 @@
       </c>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B13" s="25">
         <v>100</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="25">
-        <v>1</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
+++ b/examples/sources/src/main/java/org/optaplanner/examples/audienciaTimeGrain/app/test_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\src\main\java\org\optaplanner\examples\audienciaTimeGrain\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEEF32-4C90-44BF-8ED3-6F7B080557F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1106982-7354-4992-918E-745ED31810CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1305" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -357,6 +357,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B612DF-EC3C-4485-B98A-E680A63819FF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1114,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62BB77C-08CC-45C8-9B7E-37D5CCBA7E6C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1128,7 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1166,8 +1167,10 @@
       <c r="F2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1206,8 +1209,10 @@
       <c r="F4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1226,13 +1231,15 @@
       <c r="F5">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1247,7 +1254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1266,6 +1273,8 @@
       <c r="F7">
         <v>15</v>
       </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
